--- a/file/添加用户模板.xlsx
+++ b/file/添加用户模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\galop-server\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC9017A-2509-4ABF-8A39-D05FA24ECC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78213AF7-C5BA-4B76-AF6D-6ED76B53CCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="2355" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实例" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
@@ -467,24 +467,24 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -500,13 +500,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192FB82B-D9EE-441C-9DB2-57D9EF0630CB}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="4" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,5 +526,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>